--- a/vReport/Doc/Tmpl.xlsx
+++ b/vReport/Doc/Tmpl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="10" r:id="rId1"/>
@@ -2884,10 +2884,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15824957953315205"/>
-          <c:y val="4.39330831309638E-2"/>
+          <c:x val="0.15824957953315211"/>
+          <c:y val="4.3933083130963814E-2"/>
           <c:w val="0.60638246703180354"/>
-          <c:h val="0.93082542252312006"/>
+          <c:h val="0.93082542252312073"/>
         </c:manualLayout>
       </c:layout>
       <c:radarChart>
@@ -2983,11 +2983,11 @@
         <c:dLbls>
           <c:showVal val="1"/>
         </c:dLbls>
-        <c:axId val="135113344"/>
-        <c:axId val="135119232"/>
+        <c:axId val="76471680"/>
+        <c:axId val="111436928"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="135113344"/>
+        <c:axId val="76471680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2995,14 +2995,14 @@
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135119232"/>
+        <c:crossAx val="111436928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135119232"/>
+        <c:axId val="111436928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3013,7 +3013,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135113344"/>
+        <c:crossAx val="76471680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -3029,12 +3029,14 @@
   </c:chart>
   <c:spPr>
     <a:ln>
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="bg2"/>
+      </a:solidFill>
     </a:ln>
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3050,10 +3052,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15824957953315211"/>
+          <c:x val="0.15824957953315216"/>
           <c:y val="4.3933083130963814E-2"/>
           <c:w val="0.60638246703180354"/>
-          <c:h val="0.93082542252312073"/>
+          <c:h val="0.93082542252312117"/>
         </c:manualLayout>
       </c:layout>
       <c:radarChart>
@@ -3155,11 +3157,11 @@
         <c:dLbls>
           <c:showVal val="1"/>
         </c:dLbls>
-        <c:axId val="136860032"/>
-        <c:axId val="136861568"/>
+        <c:axId val="143586816"/>
+        <c:axId val="143588736"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="136860032"/>
+        <c:axId val="143586816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3167,14 +3169,14 @@
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136861568"/>
+        <c:crossAx val="143588736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136861568"/>
+        <c:axId val="143588736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3185,7 +3187,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136860032"/>
+        <c:crossAx val="143586816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -3201,12 +3203,14 @@
   </c:chart>
   <c:spPr>
     <a:ln>
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="bg2"/>
+      </a:solidFill>
     </a:ln>
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3222,10 +3226,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15824957953315216"/>
+          <c:x val="0.15824957953315222"/>
           <c:y val="4.3933083130963814E-2"/>
           <c:w val="0.60638246703180354"/>
-          <c:h val="0.93082542252312117"/>
+          <c:h val="0.93082542252312184"/>
         </c:manualLayout>
       </c:layout>
       <c:radarChart>
@@ -3333,11 +3337,11 @@
         <c:dLbls>
           <c:showVal val="1"/>
         </c:dLbls>
-        <c:axId val="136988160"/>
-        <c:axId val="136989696"/>
+        <c:axId val="71683072"/>
+        <c:axId val="71766784"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="136988160"/>
+        <c:axId val="71683072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3345,14 +3349,14 @@
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136989696"/>
+        <c:crossAx val="71766784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136989696"/>
+        <c:axId val="71766784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3363,7 +3367,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136988160"/>
+        <c:crossAx val="71683072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -3379,12 +3383,14 @@
   </c:chart>
   <c:spPr>
     <a:ln>
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="bg2"/>
+      </a:solidFill>
     </a:ln>
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3400,10 +3406,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15824957953315222"/>
+          <c:x val="0.15824957953315227"/>
           <c:y val="4.3933083130963814E-2"/>
           <c:w val="0.60638246703180354"/>
-          <c:h val="0.93082542252312184"/>
+          <c:h val="0.93082542252312239"/>
         </c:manualLayout>
       </c:layout>
       <c:radarChart>
@@ -3511,11 +3517,11 @@
         <c:dLbls>
           <c:showVal val="1"/>
         </c:dLbls>
-        <c:axId val="137153152"/>
-        <c:axId val="137154944"/>
+        <c:axId val="71811456"/>
+        <c:axId val="71812992"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="137153152"/>
+        <c:axId val="71811456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3523,14 +3529,14 @@
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137154944"/>
+        <c:crossAx val="71812992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137154944"/>
+        <c:axId val="71812992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3541,7 +3547,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137153152"/>
+        <c:crossAx val="71811456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -3557,12 +3563,14 @@
   </c:chart>
   <c:spPr>
     <a:ln>
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="bg2"/>
+      </a:solidFill>
     </a:ln>
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3578,10 +3586,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15824957953315227"/>
+          <c:x val="0.15824957953315233"/>
           <c:y val="4.3933083130963814E-2"/>
           <c:w val="0.60638246703180354"/>
-          <c:h val="0.93082542252312239"/>
+          <c:h val="0.93082542252312295"/>
         </c:manualLayout>
       </c:layout>
       <c:radarChart>
@@ -3689,11 +3697,11 @@
         <c:dLbls>
           <c:showVal val="1"/>
         </c:dLbls>
-        <c:axId val="138334208"/>
-        <c:axId val="138335744"/>
+        <c:axId val="76101120"/>
+        <c:axId val="76102656"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="138334208"/>
+        <c:axId val="76101120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3701,14 +3709,14 @@
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138335744"/>
+        <c:crossAx val="76102656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138335744"/>
+        <c:axId val="76102656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3719,7 +3727,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138334208"/>
+        <c:crossAx val="76101120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -3735,12 +3743,14 @@
   </c:chart>
   <c:spPr>
     <a:ln>
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="bg2"/>
+      </a:solidFill>
     </a:ln>
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3756,10 +3766,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15824957953315233"/>
+          <c:x val="0.15824957953315238"/>
           <c:y val="4.3933083130963814E-2"/>
           <c:w val="0.60638246703180354"/>
-          <c:h val="0.93082542252312295"/>
+          <c:h val="0.9308254225231235"/>
         </c:manualLayout>
       </c:layout>
       <c:radarChart>
@@ -3867,11 +3877,11 @@
         <c:dLbls>
           <c:showVal val="1"/>
         </c:dLbls>
-        <c:axId val="138507392"/>
-        <c:axId val="138508928"/>
+        <c:axId val="76458624"/>
+        <c:axId val="76476800"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="138507392"/>
+        <c:axId val="76458624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3879,14 +3889,14 @@
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138508928"/>
+        <c:crossAx val="76476800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138508928"/>
+        <c:axId val="76476800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3897,7 +3907,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138507392"/>
+        <c:crossAx val="76458624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -3913,12 +3923,14 @@
   </c:chart>
   <c:spPr>
     <a:ln>
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="bg2"/>
+      </a:solidFill>
     </a:ln>
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3934,10 +3946,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15824957953315233"/>
+          <c:x val="0.15824957953315238"/>
           <c:y val="4.3933083130963814E-2"/>
           <c:w val="0.60638246703180354"/>
-          <c:h val="0.93082542252312295"/>
+          <c:h val="0.9308254225231235"/>
         </c:manualLayout>
       </c:layout>
       <c:radarChart>
@@ -4045,11 +4057,11 @@
         <c:dLbls>
           <c:showVal val="1"/>
         </c:dLbls>
-        <c:axId val="138582272"/>
-        <c:axId val="138592256"/>
+        <c:axId val="97980416"/>
+        <c:axId val="97981952"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="138582272"/>
+        <c:axId val="97980416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4057,14 +4069,14 @@
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138592256"/>
+        <c:crossAx val="97981952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138592256"/>
+        <c:axId val="97981952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4075,7 +4087,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138582272"/>
+        <c:crossAx val="97980416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -4091,12 +4103,14 @@
   </c:chart>
   <c:spPr>
     <a:ln>
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="bg2"/>
+      </a:solidFill>
     </a:ln>
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4112,10 +4126,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15824957953315238"/>
+          <c:x val="0.15824957953315241"/>
           <c:y val="4.3933083130963814E-2"/>
           <c:w val="0.60638246703180354"/>
-          <c:h val="0.9308254225231235"/>
+          <c:h val="0.93082542252312406"/>
         </c:manualLayout>
       </c:layout>
       <c:radarChart>
@@ -4223,11 +4237,11 @@
         <c:dLbls>
           <c:showVal val="1"/>
         </c:dLbls>
-        <c:axId val="138743808"/>
-        <c:axId val="138745344"/>
+        <c:axId val="98043392"/>
+        <c:axId val="98044928"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="138743808"/>
+        <c:axId val="98043392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4235,14 +4249,14 @@
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138745344"/>
+        <c:crossAx val="98044928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138745344"/>
+        <c:axId val="98044928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4253,7 +4267,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138743808"/>
+        <c:crossAx val="98043392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -4269,12 +4283,14 @@
   </c:chart>
   <c:spPr>
     <a:ln>
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="bg2"/>
+      </a:solidFill>
     </a:ln>
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4314,10 +4330,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1263936" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -4327,7 +4343,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5743575" y="514350"/>
+          <a:off x="4981575" y="942975"/>
           <a:ext cx="1263936" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4374,10 +4390,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1454244" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -4387,7 +4403,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7591425" y="1714500"/>
+          <a:off x="7686675" y="1990725"/>
           <a:ext cx="1454244" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4427,9 +4443,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="647293" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -4439,7 +4455,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7591425" y="4048125"/>
+          <a:off x="7410450" y="4143375"/>
           <a:ext cx="647293" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4501,10 +4517,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="990600" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -4514,7 +4530,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4019550" y="4048125"/>
+          <a:off x="4295775" y="4105275"/>
           <a:ext cx="990600" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4567,9 +4583,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>600076</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="885824" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -4579,7 +4595,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4124326" y="1714500"/>
+          <a:off x="4076701" y="1990725"/>
           <a:ext cx="885824" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4666,10 +4682,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1263936" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -4679,7 +4695,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5743575" y="514350"/>
+          <a:off x="4924425" y="990600"/>
           <a:ext cx="1263936" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4727,9 +4743,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1454244" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -4739,7 +4755,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7591425" y="1600200"/>
+          <a:off x="7277100" y="1571625"/>
           <a:ext cx="1454244" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4778,10 +4794,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="647293" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -4791,7 +4807,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7591425" y="4162425"/>
+          <a:off x="7886700" y="3486150"/>
           <a:ext cx="647293" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4915,9 +4931,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>633413</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>442913</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="885824" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -4927,7 +4943,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4157663" y="1600200"/>
+          <a:off x="3967163" y="2219325"/>
           <a:ext cx="885824" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4979,10 +4995,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>348900</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>301275</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -4992,7 +5008,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5930550" y="5219700"/>
+          <a:off x="6568725" y="4600575"/>
           <a:ext cx="889987" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5066,10 +5082,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1263936" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -5079,7 +5095,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5743575" y="514350"/>
+          <a:off x="4838700" y="895350"/>
           <a:ext cx="1263936" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5126,9 +5142,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1454244" cy="283411"/>
@@ -5139,7 +5155,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7848600" y="2124075"/>
+          <a:off x="7048500" y="1400175"/>
           <a:ext cx="1454244" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5179,9 +5195,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="647293" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -5191,7 +5207,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7848600" y="3705225"/>
+          <a:off x="8077200" y="3019425"/>
           <a:ext cx="647293" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5254,9 +5270,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="914400" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -5266,7 +5282,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3914775" y="3705225"/>
+          <a:off x="3790950" y="3028950"/>
           <a:ext cx="914400" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5409,9 +5425,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>6000</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>167925</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -5421,7 +5437,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6959250" y="5067300"/>
+          <a:off x="7121175" y="4305300"/>
           <a:ext cx="889987" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5460,10 +5476,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1238250" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -5473,7 +5489,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4352925" y="5086350"/>
+          <a:off x="4181475" y="4295775"/>
           <a:ext cx="1238250" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5556,10 +5572,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1263936" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -5569,7 +5585,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5743575" y="514350"/>
+          <a:off x="4953000" y="904875"/>
           <a:ext cx="1263936" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5616,10 +5632,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1454244" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -5629,7 +5645,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7848600" y="2124075"/>
+          <a:off x="7248525" y="1409700"/>
           <a:ext cx="1454244" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5669,9 +5685,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="647293" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -5681,7 +5697,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7848600" y="3705225"/>
+          <a:off x="7962900" y="3057525"/>
           <a:ext cx="647293" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5744,9 +5760,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="914400" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -5756,7 +5772,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3914775" y="3705225"/>
+          <a:off x="3819525" y="3048000"/>
           <a:ext cx="914400" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5805,9 +5821,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>314326</xdr:colOff>
+      <xdr:colOff>381001</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1076324" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -5817,7 +5833,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3838576" y="1971675"/>
+          <a:off x="3905251" y="1905000"/>
           <a:ext cx="1076324" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5899,9 +5915,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>6000</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>234600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -5911,7 +5927,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6959250" y="5067300"/>
+          <a:off x="7187850" y="4267200"/>
           <a:ext cx="889987" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5951,9 +5967,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1238250" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -5963,7 +5979,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4352925" y="5086350"/>
+          <a:off x="4305300" y="4295775"/>
           <a:ext cx="1238250" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6046,10 +6062,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1263936" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -6059,7 +6075,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5743575" y="514350"/>
+          <a:off x="5000625" y="942975"/>
           <a:ext cx="1263936" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6106,10 +6122,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1454244" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -6119,7 +6135,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7848600" y="2124075"/>
+          <a:off x="7162800" y="1466850"/>
           <a:ext cx="1454244" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6159,9 +6175,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="647293" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -6171,7 +6187,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7848600" y="3705225"/>
+          <a:off x="7858125" y="3028950"/>
           <a:ext cx="647293" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6234,9 +6250,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="981075" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -6246,7 +6262,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3943349" y="3705225"/>
+          <a:off x="3895724" y="2990850"/>
           <a:ext cx="981075" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6367,9 +6383,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>6000</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>225075</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -6379,7 +6395,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6959250" y="5067300"/>
+          <a:off x="7178325" y="4257675"/>
           <a:ext cx="889987" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6419,9 +6435,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1238250" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -6431,7 +6447,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4352925" y="5086350"/>
+          <a:off x="4295775" y="4248150"/>
           <a:ext cx="1238250" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6514,10 +6530,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1263936" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -6527,7 +6543,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5743575" y="514350"/>
+          <a:off x="5019675" y="885825"/>
           <a:ext cx="1263936" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6574,10 +6590,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1454244" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -6587,7 +6603,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7848600" y="2124075"/>
+          <a:off x="7124700" y="1438275"/>
           <a:ext cx="1454244" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6627,9 +6643,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="647293" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -6639,7 +6655,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7848600" y="3705225"/>
+          <a:off x="7991475" y="3086100"/>
           <a:ext cx="647293" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6702,9 +6718,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="838200" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -6714,7 +6730,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3914775" y="3705225"/>
+          <a:off x="3838575" y="3076575"/>
           <a:ext cx="838200" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6763,9 +6779,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>438151</xdr:colOff>
+      <xdr:colOff>533401</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="771524" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -6775,7 +6791,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3962401" y="1971675"/>
+          <a:off x="4057651" y="1866900"/>
           <a:ext cx="771524" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6835,9 +6851,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>6000</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>167925</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -6847,7 +6863,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6959250" y="5067300"/>
+          <a:off x="7121175" y="4333875"/>
           <a:ext cx="889987" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6887,9 +6903,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="809625" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -6899,7 +6915,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4762500" y="5076825"/>
+          <a:off x="4705350" y="4333875"/>
           <a:ext cx="809625" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6982,10 +6998,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1263936" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -6995,7 +7011,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5743575" y="514350"/>
+          <a:off x="4943475" y="923925"/>
           <a:ext cx="1263936" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7042,10 +7058,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1454244" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -7055,7 +7071,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7848600" y="2124075"/>
+          <a:off x="7162800" y="1457325"/>
           <a:ext cx="1454244" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7095,9 +7111,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="647293" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -7107,7 +7123,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7848600" y="3705225"/>
+          <a:off x="7953375" y="3057525"/>
           <a:ext cx="647293" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7170,9 +7186,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="981075" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -7182,7 +7198,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3943349" y="3705225"/>
+          <a:off x="3867149" y="3028950"/>
           <a:ext cx="981075" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7231,9 +7247,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>514351</xdr:colOff>
+      <xdr:colOff>581026</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="885824" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -7243,7 +7259,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4038601" y="1971675"/>
+          <a:off x="4105276" y="1885950"/>
           <a:ext cx="885824" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7303,9 +7319,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>6000</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>167925</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -7315,7 +7331,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6959250" y="5067300"/>
+          <a:off x="7121175" y="4352925"/>
           <a:ext cx="889987" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7355,9 +7371,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1238250" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -7367,7 +7383,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4352925" y="5086350"/>
+          <a:off x="4267200" y="4371975"/>
           <a:ext cx="1238250" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7450,10 +7466,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1263936" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -7463,7 +7479,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5743575" y="514350"/>
+          <a:off x="4924425" y="904875"/>
           <a:ext cx="1263936" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7510,10 +7526,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1454244" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -7523,7 +7539,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7848600" y="2124075"/>
+          <a:off x="7162800" y="1457325"/>
           <a:ext cx="1454244" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7563,9 +7579,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="647293" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -7575,7 +7591,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7848600" y="3705225"/>
+          <a:off x="7905750" y="3105150"/>
           <a:ext cx="647293" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7638,9 +7654,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="838200" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -7650,7 +7666,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3914775" y="3705225"/>
+          <a:off x="3952875" y="3009900"/>
           <a:ext cx="838200" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7699,9 +7715,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>438151</xdr:colOff>
+      <xdr:colOff>533401</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="771524" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -7711,7 +7727,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3962401" y="1971675"/>
+          <a:off x="4057651" y="1933575"/>
           <a:ext cx="771524" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7771,9 +7787,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>6000</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>139350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -7783,7 +7799,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6959250" y="5067300"/>
+          <a:off x="7092600" y="4238625"/>
           <a:ext cx="889987" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7823,9 +7839,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="809625" cy="283411"/>
     <xdr:sp macro="" textlink="">
@@ -7835,7 +7851,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4762500" y="5076825"/>
+          <a:off x="4743450" y="4210050"/>
           <a:ext cx="809625" cy="283411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11660,8 +11676,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11721,7 +11737,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B6"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11789,7 +11805,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11865,7 +11881,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B7"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11941,7 +11957,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B7"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12017,7 +12033,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B7"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12093,7 +12109,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B7"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12168,8 +12184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
